--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H2">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I2">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J2">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.239716295177754</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N2">
-        <v>0.239716295177754</v>
+        <v>1.818468</v>
       </c>
       <c r="O2">
-        <v>0.2196287645372919</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P2">
-        <v>0.2196287645372919</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q2">
-        <v>1.763156876992114</v>
+        <v>0.04509295509999999</v>
       </c>
       <c r="R2">
-        <v>1.763156876992114</v>
+        <v>0.4058365958999999</v>
       </c>
       <c r="S2">
-        <v>0.03583259298535754</v>
+        <v>0.0004955493151750486</v>
       </c>
       <c r="T2">
-        <v>0.03583259298535754</v>
+        <v>0.0005125448226792436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H3">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I3">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J3">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.36193573997906</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N3">
-        <v>0.36193573997906</v>
+        <v>1.296278</v>
       </c>
       <c r="O3">
-        <v>0.3316065741569512</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P3">
-        <v>0.3316065741569512</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q3">
-        <v>2.662103085232941</v>
+        <v>0.03214409362777778</v>
       </c>
       <c r="R3">
-        <v>2.662103085232941</v>
+        <v>0.28929684265</v>
       </c>
       <c r="S3">
-        <v>0.05410185422691868</v>
+        <v>0.0003532477201559124</v>
       </c>
       <c r="T3">
-        <v>0.05410185422691868</v>
+        <v>0.000365362809602921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H4">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I4">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J4">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.338582694784783</v>
+        <v>0.552724</v>
       </c>
       <c r="N4">
-        <v>0.338582694784783</v>
+        <v>1.658172</v>
       </c>
       <c r="O4">
-        <v>0.3102104464535785</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P4">
-        <v>0.3102104464535785</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q4">
-        <v>2.49033719755115</v>
+        <v>0.04111805956666666</v>
       </c>
       <c r="R4">
-        <v>2.49033719755115</v>
+        <v>0.3700625361</v>
       </c>
       <c r="S4">
-        <v>0.05061106040001306</v>
+        <v>0.0004518671755799061</v>
       </c>
       <c r="T4">
-        <v>0.05061106040001306</v>
+        <v>0.000467364547361673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H5">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I5">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J5">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.151226562402245</v>
+        <v>0.16638</v>
       </c>
       <c r="N5">
-        <v>0.151226562402245</v>
+        <v>0.49914</v>
       </c>
       <c r="O5">
-        <v>0.1385542148521784</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P5">
-        <v>0.1385542148521784</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q5">
-        <v>1.112298825099394</v>
+        <v>0.0123772855</v>
       </c>
       <c r="R5">
-        <v>1.112298825099394</v>
+        <v>0.1113955695</v>
       </c>
       <c r="S5">
-        <v>0.02260522112239492</v>
+        <v>0.0001360202572585681</v>
       </c>
       <c r="T5">
-        <v>0.02260522112239492</v>
+        <v>0.0001406852486775229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>19.2878504729269</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H6">
-        <v>19.2878504729269</v>
+        <v>0.223175</v>
       </c>
       <c r="I6">
-        <v>0.4278380933544037</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J6">
-        <v>0.4278380933544037</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.239716295177754</v>
+        <v>0.1607635</v>
       </c>
       <c r="N6">
-        <v>0.239716295177754</v>
+        <v>0.321527</v>
       </c>
       <c r="O6">
-        <v>0.2196287645372919</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P6">
-        <v>0.2196287645372919</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q6">
-        <v>4.623612057312527</v>
+        <v>0.01195946470416667</v>
       </c>
       <c r="R6">
-        <v>4.623612057312527</v>
+        <v>0.07175678822499999</v>
       </c>
       <c r="S6">
-        <v>0.09396555186541825</v>
+        <v>0.0001314286129810543</v>
       </c>
       <c r="T6">
-        <v>0.09396555186541825</v>
+        <v>9.062408532984313E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H7">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J7">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.36193573997906</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N7">
-        <v>0.36193573997906</v>
+        <v>1.818468</v>
       </c>
       <c r="O7">
-        <v>0.3316065741569512</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P7">
-        <v>0.3316065741569512</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q7">
-        <v>6.980962433524259</v>
+        <v>4.847229298467999</v>
       </c>
       <c r="R7">
-        <v>6.980962433524259</v>
+        <v>43.62506368621199</v>
       </c>
       <c r="S7">
-        <v>0.1418739244310957</v>
+        <v>0.05326865702248573</v>
       </c>
       <c r="T7">
-        <v>0.1418739244310957</v>
+        <v>0.05509557481339066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H8">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J8">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.338582694784783</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N8">
-        <v>0.338582694784783</v>
+        <v>1.296278</v>
       </c>
       <c r="O8">
-        <v>0.3102104464535785</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P8">
-        <v>0.3102104464535785</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q8">
-        <v>6.53053238972954</v>
+        <v>3.455302320722445</v>
       </c>
       <c r="R8">
-        <v>6.53053238972954</v>
+        <v>31.097720886502</v>
       </c>
       <c r="S8">
-        <v>0.1327198459493173</v>
+        <v>0.037972066699988</v>
       </c>
       <c r="T8">
-        <v>0.1327198459493173</v>
+        <v>0.039274368054842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H9">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J9">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.151226562402245</v>
+        <v>0.552724</v>
       </c>
       <c r="N9">
-        <v>0.151226562402245</v>
+        <v>1.658172</v>
       </c>
       <c r="O9">
-        <v>0.1385542148521784</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P9">
-        <v>0.1385542148521784</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q9">
-        <v>2.91683532314925</v>
+        <v>4.419951244838667</v>
       </c>
       <c r="R9">
-        <v>2.91683532314925</v>
+        <v>39.779561203548</v>
       </c>
       <c r="S9">
-        <v>0.05927877110857242</v>
+        <v>0.04857308215062856</v>
       </c>
       <c r="T9">
-        <v>0.05927877110857242</v>
+        <v>0.05023895910154572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.9867924768969</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H10">
-        <v>17.9867924768969</v>
+        <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.3989783625541106</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J10">
-        <v>0.3989783625541106</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.239716295177754</v>
+        <v>0.16638</v>
       </c>
       <c r="N10">
-        <v>0.239716295177754</v>
+        <v>0.49914</v>
       </c>
       <c r="O10">
-        <v>0.2196287645372919</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P10">
-        <v>0.2196287645372919</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q10">
-        <v>4.311727254692822</v>
+        <v>1.33048589914</v>
       </c>
       <c r="R10">
-        <v>4.311727254692822</v>
+        <v>11.97437309226</v>
       </c>
       <c r="S10">
-        <v>0.08762712484487105</v>
+        <v>0.01462138320069615</v>
       </c>
       <c r="T10">
-        <v>0.08762712484487105</v>
+        <v>0.01512284253138126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.9867924768969</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H11">
-        <v>17.9867924768969</v>
+        <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.3989783625541106</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J11">
-        <v>0.3989783625541106</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.36193573997906</v>
+        <v>0.1607635</v>
       </c>
       <c r="N11">
-        <v>0.36193573997906</v>
+        <v>0.321527</v>
       </c>
       <c r="O11">
-        <v>0.3316065741569512</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P11">
-        <v>0.3316065741569512</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q11">
-        <v>6.510063044975468</v>
+        <v>1.285572603957167</v>
       </c>
       <c r="R11">
-        <v>6.510063044975468</v>
+        <v>7.713435623743</v>
       </c>
       <c r="S11">
-        <v>0.1323038479693186</v>
+        <v>0.01412780825931672</v>
       </c>
       <c r="T11">
-        <v>0.1323038479693186</v>
+        <v>0.009741559864141167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H12">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I12">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J12">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.338582694784783</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N12">
-        <v>0.338582694784783</v>
+        <v>1.818468</v>
       </c>
       <c r="O12">
-        <v>0.3102104464535785</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P12">
-        <v>0.3102104464535785</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q12">
-        <v>6.090016667362413</v>
+        <v>12.374747276668</v>
       </c>
       <c r="R12">
-        <v>6.090016667362413</v>
+        <v>111.372725490012</v>
       </c>
       <c r="S12">
-        <v>0.1237672559732284</v>
+        <v>0.1359923634372129</v>
       </c>
       <c r="T12">
-        <v>0.1237672559732284</v>
+        <v>0.1406563982013291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H13">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I13">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J13">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.151226562402245</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N13">
-        <v>0.151226562402245</v>
+        <v>1.296278</v>
       </c>
       <c r="O13">
-        <v>0.1385542148521784</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P13">
-        <v>0.1385542148521784</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q13">
-        <v>2.72008079492368</v>
+        <v>8.821223497089111</v>
       </c>
       <c r="R13">
-        <v>2.72008079492368</v>
+        <v>79.391011473802</v>
       </c>
       <c r="S13">
-        <v>0.05528013376669258</v>
+        <v>0.09694089139410952</v>
       </c>
       <c r="T13">
-        <v>0.05528013376669258</v>
+        <v>0.1002656051949347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.45230063762502</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H14">
-        <v>0.45230063762502</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I14">
-        <v>0.01003281535680137</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J14">
-        <v>0.01003281535680137</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.239716295177754</v>
+        <v>0.552724</v>
       </c>
       <c r="N14">
-        <v>0.239716295177754</v>
+        <v>1.658172</v>
       </c>
       <c r="O14">
-        <v>0.2196287645372919</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P14">
-        <v>0.2196287645372919</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q14">
-        <v>0.1084238331580056</v>
+        <v>11.28392660263867</v>
       </c>
       <c r="R14">
-        <v>0.1084238331580056</v>
+        <v>101.555339423748</v>
       </c>
       <c r="S14">
-        <v>0.002203494841645055</v>
+        <v>0.1240047827431719</v>
       </c>
       <c r="T14">
-        <v>0.002203494841645055</v>
+        <v>0.1282576878549935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.45230063762502</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H15">
-        <v>0.45230063762502</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I15">
-        <v>0.01003281535680137</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J15">
-        <v>0.01003281535680137</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.36193573997906</v>
+        <v>0.16638</v>
       </c>
       <c r="N15">
-        <v>0.36193573997906</v>
+        <v>0.49914</v>
       </c>
       <c r="O15">
-        <v>0.3316065741569512</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P15">
-        <v>0.3316065741569512</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q15">
-        <v>0.1637037659718123</v>
+        <v>3.39666761014</v>
       </c>
       <c r="R15">
-        <v>0.1637037659718123</v>
+        <v>30.57000849126</v>
       </c>
       <c r="S15">
-        <v>0.003326947529618153</v>
+        <v>0.03732770017731985</v>
       </c>
       <c r="T15">
-        <v>0.003326947529618153</v>
+        <v>0.03860790214521861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.45230063762502</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H16">
-        <v>0.45230063762502</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I16">
-        <v>0.01003281535680137</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J16">
-        <v>0.01003281535680137</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.338582694784783</v>
+        <v>0.1607635</v>
       </c>
       <c r="N16">
-        <v>0.338582694784783</v>
+        <v>0.321527</v>
       </c>
       <c r="O16">
-        <v>0.3102104464535785</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P16">
-        <v>0.3102104464535785</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q16">
-        <v>0.1531411687399549</v>
+        <v>3.282006090532167</v>
       </c>
       <c r="R16">
-        <v>0.1531411687399549</v>
+        <v>19.692036543193</v>
       </c>
       <c r="S16">
-        <v>0.003112284131019672</v>
+        <v>0.03606762668263349</v>
       </c>
       <c r="T16">
-        <v>0.003112284131019672</v>
+        <v>0.02486974186209421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H17">
+        <v>54.568808</v>
+      </c>
+      <c r="I17">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J17">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6061559999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.818468</v>
+      </c>
+      <c r="O17">
+        <v>0.3160163135757245</v>
+      </c>
+      <c r="P17">
+        <v>0.3250988409043574</v>
+      </c>
+      <c r="Q17">
+        <v>11.025736794016</v>
+      </c>
+      <c r="R17">
+        <v>99.231631146144</v>
+      </c>
+      <c r="S17">
+        <v>0.1211674042088886</v>
+      </c>
+      <c r="T17">
+        <v>0.125322997737998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H18">
+        <v>54.568808</v>
+      </c>
+      <c r="I18">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J18">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4320926666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.296278</v>
+      </c>
+      <c r="O18">
+        <v>0.2252692898249037</v>
+      </c>
+      <c r="P18">
+        <v>0.2317436849533886</v>
+      </c>
+      <c r="Q18">
+        <v>7.859593921847113</v>
+      </c>
+      <c r="R18">
+        <v>70.73634529662401</v>
+      </c>
+      <c r="S18">
+        <v>0.0863730570970123</v>
+      </c>
+      <c r="T18">
+        <v>0.08933533329253886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H19">
+        <v>54.568808</v>
+      </c>
+      <c r="I19">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J19">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.552724</v>
+      </c>
+      <c r="N19">
+        <v>1.658172</v>
+      </c>
+      <c r="O19">
+        <v>0.2881598151380647</v>
+      </c>
+      <c r="P19">
+        <v>0.2964417274431336</v>
+      </c>
+      <c r="Q19">
+        <v>10.05382994433067</v>
+      </c>
+      <c r="R19">
+        <v>90.48446949897601</v>
+      </c>
+      <c r="S19">
+        <v>0.1104866277393175</v>
+      </c>
+      <c r="T19">
+        <v>0.1142759101646065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H20">
+        <v>54.568808</v>
+      </c>
+      <c r="I20">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J20">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.16638</v>
+      </c>
+      <c r="N20">
+        <v>0.49914</v>
+      </c>
+      <c r="O20">
+        <v>0.08674135742734386</v>
+      </c>
+      <c r="P20">
+        <v>0.08923436400805568</v>
+      </c>
+      <c r="Q20">
+        <v>3.026386091680001</v>
+      </c>
+      <c r="R20">
+        <v>27.23747482512</v>
+      </c>
+      <c r="S20">
+        <v>0.03325848908907095</v>
+      </c>
+      <c r="T20">
+        <v>0.03439913217661478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H21">
+        <v>54.568808</v>
+      </c>
+      <c r="I21">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J21">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1607635</v>
+      </c>
+      <c r="N21">
+        <v>0.321527</v>
+      </c>
+      <c r="O21">
+        <v>0.08381322403396319</v>
+      </c>
+      <c r="P21">
+        <v>0.05748138269106486</v>
+      </c>
+      <c r="Q21">
+        <v>2.924224188302667</v>
+      </c>
+      <c r="R21">
+        <v>17.545345129816</v>
+      </c>
+      <c r="S21">
+        <v>0.03213578020597943</v>
+      </c>
+      <c r="T21">
+        <v>0.02215861235595308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.52892</v>
+      </c>
+      <c r="I22">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J22">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6061559999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.818468</v>
+      </c>
+      <c r="O22">
+        <v>0.3160163135757245</v>
+      </c>
+      <c r="P22">
+        <v>0.3250988409043574</v>
+      </c>
+      <c r="Q22">
+        <v>0.4633820157599999</v>
+      </c>
+      <c r="R22">
+        <v>2.780292094559999</v>
+      </c>
+      <c r="S22">
+        <v>0.00509233959196215</v>
+      </c>
+      <c r="T22">
+        <v>0.003511325328960453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.52892</v>
+      </c>
+      <c r="I23">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J23">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4320926666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.296278</v>
+      </c>
+      <c r="O23">
+        <v>0.2252692898249037</v>
+      </c>
+      <c r="P23">
+        <v>0.2317436849533886</v>
+      </c>
+      <c r="Q23">
+        <v>0.33031755996</v>
+      </c>
+      <c r="R23">
+        <v>1.98190535976</v>
+      </c>
+      <c r="S23">
+        <v>0.003630026913638026</v>
+      </c>
+      <c r="T23">
+        <v>0.002503015601470138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.52892</v>
+      </c>
+      <c r="I24">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J24">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.552724</v>
+      </c>
+      <c r="N24">
+        <v>1.658172</v>
+      </c>
+      <c r="O24">
+        <v>0.2881598151380647</v>
+      </c>
+      <c r="P24">
+        <v>0.2964417274431336</v>
+      </c>
+      <c r="Q24">
+        <v>0.4225353890399999</v>
+      </c>
+      <c r="R24">
+        <v>2.53521233424</v>
+      </c>
+      <c r="S24">
+        <v>0.004643455329366842</v>
+      </c>
+      <c r="T24">
+        <v>0.003201805774626231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="H17">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="I17">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="J17">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.151226562402245</v>
-      </c>
-      <c r="N17">
-        <v>0.151226562402245</v>
-      </c>
-      <c r="O17">
-        <v>0.1385542148521784</v>
-      </c>
-      <c r="P17">
-        <v>0.1385542148521784</v>
-      </c>
-      <c r="Q17">
-        <v>0.06839987060037529</v>
-      </c>
-      <c r="R17">
-        <v>0.06839987060037529</v>
-      </c>
-      <c r="S17">
-        <v>0.001390088854518493</v>
-      </c>
-      <c r="T17">
-        <v>0.001390088854518493</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.52892</v>
+      </c>
+      <c r="I25">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J25">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.16638</v>
+      </c>
+      <c r="N25">
+        <v>0.49914</v>
+      </c>
+      <c r="O25">
+        <v>0.08674135742734386</v>
+      </c>
+      <c r="P25">
+        <v>0.08923436400805568</v>
+      </c>
+      <c r="Q25">
+        <v>0.1271908548</v>
+      </c>
+      <c r="R25">
+        <v>0.7631451288</v>
+      </c>
+      <c r="S25">
+        <v>0.001397764702998341</v>
+      </c>
+      <c r="T25">
+        <v>0.0009638019061634964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.52892</v>
+      </c>
+      <c r="I26">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J26">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1607635</v>
+      </c>
+      <c r="N26">
+        <v>0.321527</v>
+      </c>
+      <c r="O26">
+        <v>0.08381322403396319</v>
+      </c>
+      <c r="P26">
+        <v>0.05748138269106486</v>
+      </c>
+      <c r="Q26">
+        <v>0.12289726521</v>
+      </c>
+      <c r="R26">
+        <v>0.49158906084</v>
+      </c>
+      <c r="S26">
+        <v>0.001350580273052493</v>
+      </c>
+      <c r="T26">
+        <v>0.000620844523546561</v>
       </c>
     </row>
   </sheetData>
